--- a/biology/Histoire de la zoologie et de la botanique/Günther_W.H._Kunkel/Günther_W.H._Kunkel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Günther_W.H._Kunkel/Günther_W.H._Kunkel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%BCnther_W.H._Kunkel</t>
+          <t>Günther_W.H._Kunkel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Günther Willi Hermann Kunkel (né le 26 septembre 1928 à Mittenwalde, en Allemagne, et mort le 6 août 2007 à Vélez-Rubio, en Espagne) est un botaniste, naturaliste et explorateur allemand, installé en Espagne à son décès, premier en Grande Canarie de 1964 jusqu'à 1977, et alors en différents lieux de Andalousie.
 Chercheur scientifique autodidacte, passionné d'écologie, spécialiste des zones arides, professeur de botanique et de dendrologie, il a étudié particulièrement la flore des îles Canaries et de la province d'Almería. Il effectua plusieurs voyages en Amérique du Sud, en Afrique tropicale et au Moyen-Orient. Il est l'auteur de 70 livres et plus de 1 000 articles scientifiques.
